--- a/results/data/CDW_mastersankey.xlsx
+++ b/results/data/CDW_mastersankey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="32">
   <si>
     <t>CDW_sankey</t>
   </si>
@@ -70,10 +70,10 @@
     <t>A02 Overslag / opbulken</t>
   </si>
   <si>
-    <t>B03 Inzetten als bouwstof</t>
+    <t>B05 Overig inzetten als grondstof</t>
   </si>
   <si>
-    <t>B05 Overig inzetten als grondstof</t>
+    <t>C01 Breken</t>
   </si>
   <si>
     <t>C02 Shredderen / knippen</t>
@@ -82,19 +82,19 @@
     <t>C03 Sorteren / scheiden</t>
   </si>
   <si>
+    <t>F07 Verbranden met terugwinnen energie (bijstoken)</t>
+  </si>
+  <si>
     <t>G01 Direct storten</t>
   </si>
   <si>
-    <t>C01 Breken</t>
+    <t>B03 Inzetten als bouwstof</t>
   </si>
   <si>
     <t>C04 Immobiliseren voor hergebruik</t>
   </si>
   <si>
     <t>D04 Metaal terugwinnen (chemisch)</t>
-  </si>
-  <si>
-    <t>F07 Verbranden met terugwinnen energie (bijstoken)</t>
   </si>
   <si>
     <t>D01 Chemisch / fysisch scheiden</t>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>41146.50299999998</v>
+        <v>56419.545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -535,7 +535,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>3.7</v>
+        <v>3735.199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -552,7 +552,7 @@
         <v>19</v>
       </c>
       <c r="E5">
-        <v>3735.199</v>
+        <v>12358.94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -569,7 +569,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1.38</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -586,7 +586,7 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>163879.031</v>
+        <v>164228.541</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -603,7 +603,7 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>109.36</v>
+        <v>54554.30899999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -614,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>50883.00600000001</v>
+        <v>109.36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2691.94</v>
+        <v>39459.99600000001</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,10 +651,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1488.4</v>
+        <v>2691.94</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -668,10 +668,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>82.98</v>
+        <v>1488.4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -685,10 +685,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>6183.41</v>
+        <v>82.98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -702,10 +702,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>26317.955</v>
+        <v>1624.47</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -716,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>0.017</v>
+        <v>26133.705</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -736,10 +736,10 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
-        <v>120214.36</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -753,10 +753,10 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>13968</v>
+        <v>115035.36</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -770,10 +770,10 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>164253.17</v>
+        <v>13968</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -787,10 +787,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>37745.054</v>
+        <v>148871.69</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,10 +804,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>4419.189999999999</v>
+        <v>35389.35400000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,10 +821,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>643.1999999999999</v>
+        <v>3843.369999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -841,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="E22">
-        <v>39562.413</v>
+        <v>643.1999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -858,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="E23">
-        <v>11.48</v>
+        <v>39562.413</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -875,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>86.59999999999999</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -886,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>31132.517</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>548.3200000000001</v>
+        <v>20006.407</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>1972.65</v>
+        <v>5280.599999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -940,10 +940,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>16.66</v>
+        <v>1624.4</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,10 +957,10 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>8909.519999999999</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,10 +974,10 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>6968.005999999999</v>
+        <v>8827.859999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,10 +991,10 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>168.68</v>
+        <v>8245.77</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1011,7 +1011,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>5043.092000000006</v>
+        <v>168.68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1022,13 +1022,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E33">
-        <v>1561.017</v>
+        <v>1607.744999999999</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,10 +1042,10 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>19380.04599999999</v>
+        <v>1561.017</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>366.22</v>
+        <v>19376.166</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,10 +1076,10 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>3049.16</v>
+        <v>366.22</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,10 +1093,10 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>5760.472000000002</v>
+        <v>3049.16</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>1113.47</v>
+        <v>5760.472000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1127,10 +1127,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E39">
-        <v>10994.92</v>
+        <v>1113.47</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1144,10 +1144,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>340.54</v>
+        <v>10994.92</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1161,10 +1161,10 @@
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E41">
-        <v>7473.579999999999</v>
+        <v>329.58</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1175,13 +1175,13 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E42">
-        <v>88088.09199999974</v>
+        <v>7461.639999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1195,10 +1195,10 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>4196.82</v>
+        <v>72226.90999999989</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1212,10 +1212,10 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>328400.8270000001</v>
+        <v>4196.82</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1229,10 +1229,10 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>4477.02</v>
+        <v>308974.2570000002</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1246,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46">
-        <v>159161.4700000001</v>
+        <v>4453.86</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1263,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>25.76</v>
+        <v>127850.4799999999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1280,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>367.86</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1297,10 +1297,10 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>2307.684</v>
+        <v>367.86</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1314,10 +1314,10 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>54998.00899999999</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1331,10 +1331,10 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>41.12</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="E52">
-        <v>677.74</v>
+        <v>685.609</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>17</v>
       </c>
       <c r="E53">
-        <v>7518.838999999996</v>
+        <v>9553.946000000004</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1382,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>203</v>
@@ -1399,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>130.32</v>
+        <v>1613.62</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1419,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="E56">
-        <v>3306.699999999999</v>
+        <v>3300.679999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1436,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="E57">
-        <v>13175.834</v>
+        <v>13134.921</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1464,13 +1464,13 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>11430.02</v>
+        <v>1932.5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1484,10 +1484,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>7.42</v>
+        <v>8153.73</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1501,10 +1501,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>21963.28</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1518,10 +1518,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>9586.796</v>
+        <v>21736.5</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>90738.56799999997</v>
+        <v>85115.01799999998</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1569,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>988.27</v>
+        <v>199.62</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1586,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>827.24</v>
@@ -1603,10 +1603,10 @@
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>240170.698</v>
+        <v>231896.8980000001</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1640,7 +1640,7 @@
         <v>21</v>
       </c>
       <c r="E69">
-        <v>3517.401999999999</v>
+        <v>3266.521999999999</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1671,7 +1671,7 @@
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E71">
         <v>273.1199999999999</v>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E72">
         <v>333.14</v>
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="E74">
-        <v>19904.77200000001</v>
+        <v>23240.10600000001</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1739,10 +1739,10 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>1440.16</v>
+        <v>12075.1</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1756,10 +1756,10 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>3.38</v>
+        <v>31.24</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1773,10 +1773,10 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E77">
-        <v>31.24</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1790,10 +1790,10 @@
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E78">
-        <v>3904.68</v>
+        <v>7093.379999999998</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1807,10 +1807,10 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E79">
-        <v>12053.96</v>
+        <v>91.54000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1824,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80">
-        <v>91.54000000000001</v>
+        <v>930.52</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1841,10 +1841,10 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E81">
-        <v>1409.18</v>
+        <v>1586.595</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1855,13 +1855,13 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>1154.454999999999</v>
+        <v>150.961</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1875,10 +1875,10 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>161.221</v>
+        <v>7360.811000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1892,10 +1892,10 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84">
-        <v>7367.420000000001</v>
+        <v>53.22</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1912,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="E85">
-        <v>53.22</v>
+        <v>281.32</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1926,10 +1926,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E86">
-        <v>314</v>
+        <v>602.09</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1943,10 +1943,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>602.09</v>
+        <v>143.46</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1960,10 +1960,10 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>143.46</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1977,10 +1977,10 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>11.38</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1994,10 +1994,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E90">
-        <v>18.1</v>
+        <v>2884.44</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2008,13 +2008,13 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E91">
-        <v>2957.54</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2028,10 +2028,10 @@
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>8.516999999999999</v>
+        <v>49690.49899999998</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2045,10 +2045,10 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E93">
-        <v>63797.53299999997</v>
+        <v>494.72</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2065,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="E94">
-        <v>494.72</v>
+        <v>70165.58</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2082,7 +2082,7 @@
         <v>19</v>
       </c>
       <c r="E95">
-        <v>70165.58</v>
+        <v>292175.242</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2096,10 +2096,10 @@
         <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E96">
-        <v>312312.6220000001</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2113,10 +2113,10 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E97">
-        <v>6.49</v>
+        <v>20276.12500000001</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2130,10 +2130,10 @@
         <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>20583.692</v>
+        <v>1501.74</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2147,10 +2147,10 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E99">
-        <v>199.42</v>
+        <v>91.63999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2158,16 +2158,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E100">
-        <v>1737.08</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2175,16 +2175,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E101">
-        <v>1507.16</v>
+        <v>77926.984</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,16 +2192,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E102">
-        <v>1932.5</v>
+        <v>722.4</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2209,16 +2209,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E103">
-        <v>2076.34</v>
+        <v>4375.49</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2232,10 +2232,10 @@
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>1.314</v>
+        <v>516.92</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2249,10 +2249,10 @@
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E105">
-        <v>70642.49299999997</v>
+        <v>219217.981</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2266,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E106">
-        <v>722.4</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2280,13 +2280,13 @@
         <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E107">
-        <v>174.46</v>
+        <v>29211.914</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2297,13 +2297,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E108">
-        <v>516.92</v>
+        <v>170210.978</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2314,13 +2314,13 @@
         <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E109">
-        <v>219216.841</v>
+        <v>1252.03</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2331,13 +2331,13 @@
         <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E110">
-        <v>21.2</v>
+        <v>24524.7</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2351,10 +2351,10 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E111">
-        <v>29211.914</v>
+        <v>2697.421</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2368,10 +2368,10 @@
         <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>170210.978</v>
+        <v>686.62</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2382,13 +2382,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113">
-        <v>1252.03</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2399,13 +2399,13 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E114">
-        <v>24524.7</v>
+        <v>463771.4250000005</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2416,13 +2416,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E115">
-        <v>2697.421</v>
+        <v>59751.60000000001</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2433,13 +2433,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E116">
-        <v>686.62</v>
+        <v>266508.5879999999</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2453,10 +2453,10 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E117">
-        <v>32.7</v>
+        <v>38079.569</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2470,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E118">
-        <v>463771.4250000005</v>
+        <v>523.9020000000002</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2487,10 +2487,10 @@
         <v>12</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E119">
-        <v>59751.60000000001</v>
+        <v>42803.018</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2504,10 +2504,10 @@
         <v>12</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E120">
-        <v>266508.5879999999</v>
+        <v>1200.84</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2521,10 +2521,10 @@
         <v>12</v>
       </c>
       <c r="D121" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E121">
-        <v>38079.569</v>
+        <v>964.7</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2538,10 +2538,10 @@
         <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122">
-        <v>523.9020000000002</v>
+        <v>439.12</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2555,10 +2555,10 @@
         <v>12</v>
       </c>
       <c r="D123" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E123">
-        <v>42803.018</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2569,13 +2569,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E124">
-        <v>1200.84</v>
+        <v>188.04</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2586,13 +2586,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>964.7</v>
+        <v>79959.73900000003</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2603,13 +2603,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E126">
-        <v>439.12</v>
+        <v>99640.51999999995</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2620,13 +2620,13 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E127">
-        <v>12.88</v>
+        <v>309.84</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2640,10 +2640,10 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E128">
-        <v>188.04</v>
+        <v>135.08</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2657,10 +2657,10 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>52937.88299999998</v>
+        <v>30189.72</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2674,10 +2674,10 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>8325.68</v>
+        <v>233.76</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2691,10 +2691,10 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E131">
-        <v>309.84</v>
+        <v>573.2</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2708,10 +2708,10 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E132">
-        <v>135.08</v>
+        <v>41885.80400000012</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2722,13 +2722,13 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>30140.22</v>
+        <v>14.316</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2739,13 +2739,13 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E134">
-        <v>41885.80400000012</v>
+        <v>95028.73000000005</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2759,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="D135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E135">
-        <v>14.316</v>
+        <v>4239.166999999999</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2776,10 +2776,10 @@
         <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E136">
-        <v>95028.73000000005</v>
+        <v>594.8800000000001</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2793,10 +2793,10 @@
         <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137">
-        <v>4239.166999999999</v>
+        <v>20420.934</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2810,10 +2810,10 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E138">
-        <v>594.8800000000001</v>
+        <v>98.38</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2827,10 +2827,10 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E139">
-        <v>20420.934</v>
+        <v>82679.19500000002</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2844,10 +2844,10 @@
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>98.38</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2861,10 +2861,10 @@
         <v>14</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E141">
-        <v>82679.19500000002</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2878,10 +2878,10 @@
         <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E142">
-        <v>42.34</v>
+        <v>39408.81999999997</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2892,13 +2892,13 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E143">
-        <v>17.74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2909,13 +2909,13 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>39408.81999999997</v>
+        <v>34283.90800000002</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2929,10 +2929,10 @@
         <v>15</v>
       </c>
       <c r="D145" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>116</v>
+        <v>139930.48</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2946,10 +2946,10 @@
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E146">
-        <v>68590.25499999999</v>
+        <v>351867.8119999998</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2963,10 +2963,10 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E147">
-        <v>139930.48</v>
+        <v>14552.665</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2980,10 +2980,10 @@
         <v>15</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E148">
-        <v>447383.6819999999</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2997,10 +2997,10 @@
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E149">
-        <v>14553.80499999999</v>
+        <v>339.9450000000001</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3008,16 +3008,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150">
         <v>6</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>25</v>
-      </c>
-      <c r="E150">
-        <v>6.88</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3025,16 +3025,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E151">
-        <v>49.5</v>
+        <v>52327.533</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3042,16 +3042,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E152">
-        <v>233.76</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3059,16 +3059,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E153">
-        <v>573.2</v>
+        <v>3895.820000000001</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3076,16 +3076,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E154">
-        <v>340.125</v>
+        <v>5552.559999999999</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3099,10 +3099,10 @@
         <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E155">
-        <v>48627.47200000001</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3116,10 +3116,10 @@
         <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E156">
-        <v>15.06</v>
+        <v>52865.28200000001</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3133,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E157">
-        <v>3895.56</v>
+        <v>13485.456</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3147,13 +3147,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E158">
-        <v>64.08</v>
+        <v>13041.18</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3164,13 +3164,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E159">
-        <v>2132.585</v>
+        <v>192819.2860000002</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3181,13 +3181,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E160">
-        <v>52951.852</v>
+        <v>8026.96</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3198,13 +3198,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E161">
-        <v>656.5</v>
+        <v>25773.64</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3218,10 +3218,10 @@
         <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E162">
-        <v>13041.18</v>
+        <v>3021.39</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3235,10 +3235,10 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E163">
-        <v>195271.3260000001</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3252,10 +3252,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E164">
-        <v>8028.65</v>
+        <v>5217.427</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3266,13 +3266,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E165">
-        <v>8026.96</v>
+        <v>5942.089999999999</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3283,13 +3283,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D166" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E166">
-        <v>25773.64</v>
+        <v>160262.0040000002</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3300,13 +3300,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E167">
-        <v>3024.95</v>
+        <v>3984.98</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3317,13 +3317,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D168" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E168">
-        <v>337.5</v>
+        <v>22484.00100000001</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3334,13 +3334,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E169">
-        <v>20.54</v>
+        <v>111398.8580000001</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3351,13 +3351,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E170">
-        <v>5453.927</v>
+        <v>17149.047</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3371,10 +3371,10 @@
         <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E171">
-        <v>5942.089999999999</v>
+        <v>5133.780000000002</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3388,10 +3388,10 @@
         <v>12</v>
       </c>
       <c r="D172" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E172">
-        <v>174821.1820000002</v>
+        <v>2685.52</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3405,10 +3405,10 @@
         <v>12</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E173">
-        <v>3984.98</v>
+        <v>8929.664000000001</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3422,10 +3422,10 @@
         <v>12</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E174">
-        <v>22588.56100000001</v>
+        <v>5633.24</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3442,7 +3442,7 @@
         <v>23</v>
       </c>
       <c r="E175">
-        <v>120691.678</v>
+        <v>87.28</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3453,13 +3453,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E176">
-        <v>17150.387</v>
+        <v>1405.96</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3470,13 +3470,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E177">
-        <v>5136.680000000001</v>
+        <v>89934.09599999998</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3487,13 +3487,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E178">
-        <v>2685.52</v>
+        <v>26913.78999999999</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3504,13 +3504,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E179">
-        <v>10179.344</v>
+        <v>847.67</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3521,13 +3521,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E180">
-        <v>5633.24</v>
+        <v>76.45999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3538,13 +3538,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>87.28</v>
+        <v>94224.41300000002</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3558,10 +3558,10 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E182">
-        <v>1412.94</v>
+        <v>155.58</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3575,10 +3575,10 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E183">
-        <v>94614.753</v>
+        <v>19893.9</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3592,10 +3592,10 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184">
-        <v>2105.49</v>
+        <v>678.7</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3609,10 +3609,10 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E185">
-        <v>887.2100000000002</v>
+        <v>2551.614999999998</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3623,13 +3623,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E186">
-        <v>76.45999999999999</v>
+        <v>330.441</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3640,13 +3640,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E187">
-        <v>103348.733</v>
+        <v>110010.787</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3657,13 +3657,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E188">
-        <v>31885.22</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3674,13 +3674,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E189">
-        <v>678.7</v>
+        <v>5071.85</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3691,13 +3691,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E190">
-        <v>6168.235000000005</v>
+        <v>947.1330000000002</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3711,10 +3711,10 @@
         <v>14</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E191">
-        <v>334.141</v>
+        <v>144.579</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3728,10 +3728,10 @@
         <v>14</v>
       </c>
       <c r="D192" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E192">
-        <v>110034.802</v>
+        <v>15595.31</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3745,10 +3745,10 @@
         <v>14</v>
       </c>
       <c r="D193" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E193">
-        <v>42.7</v>
+        <v>1588.78</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3759,13 +3759,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E194">
-        <v>5071.85</v>
+        <v>43319.01000000002</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3776,13 +3776,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E195">
-        <v>947.1329999999999</v>
+        <v>1115.82</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3793,13 +3793,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E196">
-        <v>522.399</v>
+        <v>4330.54</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3810,13 +3810,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>20828.09</v>
+        <v>176126.775</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3827,13 +3827,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E198">
-        <v>1701.84</v>
+        <v>371.76</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3847,10 +3847,10 @@
         <v>15</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E199">
-        <v>6</v>
+        <v>13089.37</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3864,10 +3864,10 @@
         <v>15</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E200">
-        <v>52327.82300000007</v>
+        <v>1104.34</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3881,10 +3881,10 @@
         <v>15</v>
       </c>
       <c r="D201" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E201">
-        <v>1115.82</v>
+        <v>474.62</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3898,10 +3898,10 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E202">
-        <v>4330.8</v>
+        <v>44.82</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3915,10 +3915,10 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>217657.7300000001</v>
+        <v>32414.75</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3932,10 +3932,10 @@
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E204">
-        <v>371.76</v>
+        <v>392.2</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3943,16 +3943,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E205">
-        <v>15542.05</v>
+        <v>1600.212</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3960,16 +3960,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E206">
-        <v>1104.34</v>
+        <v>18300.28499999999</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3977,16 +3977,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E207">
-        <v>474.62</v>
+        <v>23046.6</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3994,16 +3994,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E208">
-        <v>44.82</v>
+        <v>1374.8</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4011,16 +4011,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E209">
-        <v>33026.81</v>
+        <v>23492.738</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4028,16 +4028,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E210">
-        <v>155.58</v>
+        <v>109.125</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4045,16 +4045,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E211">
-        <v>1986.16</v>
+        <v>5642.28</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4062,16 +4062,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E212">
-        <v>13220.256</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4079,16 +4079,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D213" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E213">
-        <v>409.1200000000001</v>
+        <v>2480.571</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4099,13 +4099,13 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E214">
-        <v>1248.214</v>
+        <v>6827.78</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4116,13 +4116,13 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E215">
-        <v>16633.059</v>
+        <v>2624.02</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4133,13 +4133,13 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E216">
-        <v>22132.1</v>
+        <v>125.54</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4150,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D217" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E217">
-        <v>1162.2</v>
+        <v>109855.6980000001</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4167,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E218">
-        <v>23261.828</v>
+        <v>1015.14</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4184,13 +4184,13 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D219" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E219">
-        <v>4.28</v>
+        <v>2284.12</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4201,13 +4201,13 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E220">
-        <v>6.9</v>
+        <v>190715.111</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4218,13 +4218,13 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D221" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E221">
-        <v>2493.051</v>
+        <v>7461.772000000001</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4235,13 +4235,13 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D222" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E222">
-        <v>6827.78</v>
+        <v>1217.741</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4252,13 +4252,13 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D223" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E223">
-        <v>5260.26</v>
+        <v>9390.360000000001</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4269,13 +4269,13 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D224" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>3679.56</v>
+        <v>304.4</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4289,10 +4289,10 @@
         <v>12</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E225">
-        <v>125.54</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4306,10 +4306,10 @@
         <v>12</v>
       </c>
       <c r="D226" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>111800.9130000001</v>
+        <v>315.35</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4320,13 +4320,13 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E227">
-        <v>1015.14</v>
+        <v>26483.833</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4337,13 +4337,13 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D228" t="s">
         <v>19</v>
       </c>
       <c r="E228">
-        <v>2284.12</v>
+        <v>4065.98</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4354,13 +4354,13 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E229">
-        <v>198246.3909999999</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4371,13 +4371,13 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E230">
-        <v>7464.212</v>
+        <v>26425.84</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4388,13 +4388,13 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E231">
-        <v>1220.261</v>
+        <v>847.89</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4405,13 +4405,13 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>9390.360000000001</v>
+        <v>1903.86</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4422,13 +4422,13 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E233">
-        <v>304.4</v>
+        <v>2130.107</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4439,13 +4439,13 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E234">
-        <v>86.58</v>
+        <v>254.489</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4456,13 +4456,13 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D235" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E235">
-        <v>315.35</v>
+        <v>7760.384999999996</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4473,13 +4473,13 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D236" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E236">
-        <v>24065.837</v>
+        <v>644.13</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4490,13 +4490,13 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E237">
-        <v>793.26</v>
+        <v>54.34</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4507,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E238">
-        <v>73.54000000000001</v>
+        <v>6644.322999999999</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4524,13 +4524,13 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E239">
-        <v>28089.61999999999</v>
+        <v>159.67</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4541,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D240" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>847.89</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4558,13 +4558,13 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E241">
-        <v>1629.92</v>
+        <v>901.22</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4575,13 +4575,13 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D242" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E242">
-        <v>2170.267</v>
+        <v>24037.37999999999</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4592,13 +4592,13 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E243">
-        <v>254.489</v>
+        <v>2619.52</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4609,13 +4609,13 @@
         <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E244">
-        <v>8147.088999999996</v>
+        <v>92737.98399999995</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4626,13 +4626,13 @@
         <v>8</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E245">
-        <v>644.13</v>
+        <v>1247.6</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4643,13 +4643,13 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D246" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E246">
-        <v>364.59</v>
+        <v>13783.98000000001</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4660,13 +4660,13 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D247" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E247">
-        <v>6648.592999999999</v>
+        <v>54.48</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4677,13 +4677,13 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E248">
-        <v>159.67</v>
+        <v>117.98</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4694,13 +4694,13 @@
         <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D249" t="s">
         <v>28</v>
       </c>
       <c r="E249">
-        <v>2136.62</v>
+        <v>17417.9</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4711,13 +4711,13 @@
         <v>8</v>
       </c>
       <c r="C250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D250" t="s">
         <v>22</v>
       </c>
       <c r="E250">
-        <v>923.3400000000001</v>
+        <v>643.84</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4731,10 +4731,10 @@
         <v>15</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E251">
-        <v>351.998</v>
+        <v>4653.879999999999</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4742,16 +4742,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D252" t="s">
         <v>17</v>
       </c>
       <c r="E252">
-        <v>31994.19899999997</v>
+        <v>1349.615</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4759,16 +4759,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D253" t="s">
         <v>18</v>
       </c>
       <c r="E253">
-        <v>121.82</v>
+        <v>229.6</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4776,16 +4776,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D254" t="s">
         <v>19</v>
       </c>
       <c r="E254">
-        <v>2619.52</v>
+        <v>5279.219999999999</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4793,16 +4793,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E255">
-        <v>99796.73199999993</v>
+        <v>3569.1</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4810,16 +4810,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D256" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E256">
-        <v>1613.65</v>
+        <v>11152.08</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4827,16 +4827,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D257" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E257">
-        <v>15106.52000000001</v>
+        <v>197.62</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4844,16 +4844,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D258" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E258">
-        <v>54.48</v>
+        <v>26357.644</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,16 +4861,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D259" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E259">
-        <v>117.98</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,16 +4878,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E260">
-        <v>17417.9</v>
+        <v>192.72</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4895,16 +4895,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E261">
-        <v>510.645</v>
+        <v>14946.26100000001</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4912,16 +4912,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D262" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E262">
-        <v>6286.12</v>
+        <v>58.42</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4929,16 +4929,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D263" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E263">
-        <v>992.1199999999999</v>
+        <v>850.5799999999999</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4949,13 +4949,13 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D264" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E264">
-        <v>1051.755</v>
+        <v>35939.64999999999</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4966,13 +4966,13 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E265">
-        <v>229.6</v>
+        <v>218.001</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4983,13 +4983,13 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D266" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E266">
-        <v>2366</v>
+        <v>399.72</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5000,13 +5000,13 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D267" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E267">
-        <v>3569.440000000001</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5017,13 +5017,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D268" t="s">
         <v>16</v>
       </c>
       <c r="E268">
-        <v>197.62</v>
+        <v>143.54</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5034,13 +5034,13 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
       </c>
       <c r="E269">
-        <v>26357.644</v>
+        <v>6892.125</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5051,13 +5051,13 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D270" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E270">
-        <v>31.2</v>
+        <v>1039.88</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5068,13 +5068,13 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D271" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E271">
-        <v>1808</v>
+        <v>91.68000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5085,13 +5085,13 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E272">
-        <v>192.72</v>
+        <v>8918.843999999999</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5102,13 +5102,13 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D273" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>17755.46100000001</v>
+        <v>1575.38</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5119,13 +5119,13 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E274">
-        <v>58.42</v>
+        <v>96.97999999999998</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5136,13 +5136,13 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D275" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E275">
-        <v>850.5799999999999</v>
+        <v>3387.873999999999</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5153,13 +5153,13 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E276">
-        <v>36907.56999999999</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5170,13 +5170,13 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D277" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E277">
-        <v>218.001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5187,13 +5187,13 @@
         <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E278">
-        <v>402.65</v>
+        <v>422.18</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5204,13 +5204,13 @@
         <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E279">
-        <v>2.56</v>
+        <v>4630.923999999998</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5221,13 +5221,13 @@
         <v>9</v>
       </c>
       <c r="C280" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D280" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E280">
-        <v>143.54</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5238,13 +5238,13 @@
         <v>9</v>
       </c>
       <c r="C281" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E281">
-        <v>8560.633000000003</v>
+        <v>14429.2</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D282" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E282">
-        <v>149.22</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5272,13 +5272,13 @@
         <v>9</v>
       </c>
       <c r="C283" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E283">
-        <v>14731.424</v>
+        <v>2334.6</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5289,13 +5289,13 @@
         <v>9</v>
       </c>
       <c r="C284" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E284">
-        <v>628.76</v>
+        <v>147.16</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5306,13 +5306,13 @@
         <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D285" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E285">
-        <v>119.82</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5323,13 +5323,13 @@
         <v>9</v>
       </c>
       <c r="C286" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D286" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>0.12</v>
+        <v>2056.78</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5340,13 +5340,13 @@
         <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E287">
-        <v>3400.834</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5357,234 +5357,13 @@
         <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D288" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E288">
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="1">
-        <v>287</v>
-      </c>
-      <c r="B289" t="s">
-        <v>9</v>
-      </c>
-      <c r="C289" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" t="s">
-        <v>21</v>
-      </c>
-      <c r="E289">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="1">
-        <v>288</v>
-      </c>
-      <c r="B290" t="s">
-        <v>9</v>
-      </c>
-      <c r="C290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D290" t="s">
-        <v>22</v>
-      </c>
-      <c r="E290">
-        <v>422.18</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="1">
-        <v>289</v>
-      </c>
-      <c r="B291" t="s">
-        <v>9</v>
-      </c>
-      <c r="C291" t="s">
-        <v>15</v>
-      </c>
-      <c r="D291" t="s">
-        <v>17</v>
-      </c>
-      <c r="E291">
-        <v>6867.251000000004</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="1">
-        <v>290</v>
-      </c>
-      <c r="B292" t="s">
-        <v>9</v>
-      </c>
-      <c r="C292" t="s">
-        <v>15</v>
-      </c>
-      <c r="D292" t="s">
-        <v>18</v>
-      </c>
-      <c r="E292">
-        <v>42.82</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="1">
-        <v>291</v>
-      </c>
-      <c r="B293" t="s">
-        <v>9</v>
-      </c>
-      <c r="C293" t="s">
-        <v>15</v>
-      </c>
-      <c r="D293" t="s">
-        <v>23</v>
-      </c>
-      <c r="E293">
-        <v>18444.94000000001</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="1">
-        <v>292</v>
-      </c>
-      <c r="B294" t="s">
-        <v>9</v>
-      </c>
-      <c r="C294" t="s">
-        <v>15</v>
-      </c>
-      <c r="D294" t="s">
-        <v>20</v>
-      </c>
-      <c r="E294">
-        <v>17.58</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="1">
-        <v>293</v>
-      </c>
-      <c r="B295" t="s">
-        <v>9</v>
-      </c>
-      <c r="C295" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" t="s">
-        <v>21</v>
-      </c>
-      <c r="E295">
-        <v>2358.88</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="1">
-        <v>294</v>
-      </c>
-      <c r="B296" t="s">
-        <v>9</v>
-      </c>
-      <c r="C296" t="s">
-        <v>15</v>
-      </c>
-      <c r="D296" t="s">
-        <v>24</v>
-      </c>
-      <c r="E296">
-        <v>147.16</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="1">
-        <v>295</v>
-      </c>
-      <c r="B297" t="s">
-        <v>9</v>
-      </c>
-      <c r="C297" t="s">
-        <v>15</v>
-      </c>
-      <c r="D297" t="s">
-        <v>25</v>
-      </c>
-      <c r="E297">
-        <v>20.18</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298" t="s">
-        <v>9</v>
-      </c>
-      <c r="C298" t="s">
-        <v>15</v>
-      </c>
-      <c r="D298" t="s">
-        <v>28</v>
-      </c>
-      <c r="E298">
-        <v>2290.58</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299" t="s">
-        <v>9</v>
-      </c>
-      <c r="C299" t="s">
-        <v>15</v>
-      </c>
-      <c r="D299" t="s">
-        <v>29</v>
-      </c>
-      <c r="E299">
-        <v>1330.96</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="1">
-        <v>298</v>
-      </c>
-      <c r="B300" t="s">
-        <v>9</v>
-      </c>
-      <c r="C300" t="s">
-        <v>15</v>
-      </c>
-      <c r="D300" t="s">
-        <v>26</v>
-      </c>
-      <c r="E300">
-        <v>11152.62</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="1">
-        <v>299</v>
-      </c>
-      <c r="B301" t="s">
-        <v>9</v>
-      </c>
-      <c r="C301" t="s">
-        <v>15</v>
-      </c>
-      <c r="D301" t="s">
-        <v>22</v>
-      </c>
-      <c r="E301">
-        <v>321.26</v>
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>
